--- a/Hem catalogue.xlsx
+++ b/Hem catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee11846ce882123f/Desktop/hem-catalogue-app_final-1/hem-catalogue-app-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{B8F50426-6742-42C2-B694-AD00EF5BFA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CACBAB08-7AB4-4E4A-96FB-72E05283645A}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{B8F50426-6742-42C2-B694-AD00EF5BFA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF0C226A-85FE-4A28-B8BD-AA5E5242C64C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hem catalogue'!$A$1:$G$731</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="920">
   <si>
     <t>Category</t>
   </si>
@@ -2801,6 +2801,12 @@
   </si>
   <si>
     <t>Call Money Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money Drawing Hexa </t>
+  </si>
+  <si>
+    <t>RUE Hexa</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3106,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3931,6 +3937,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4250,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBB3535-4F14-43E5-BD0D-3890A33AED12}">
   <dimension ref="A1:G731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="62" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -4264,7 +4274,7 @@
     <col min="6" max="16384" width="48.7265625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4379,7 +4389,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>241</v>
+        <v>918</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>841</v>
@@ -4409,7 +4419,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>250</v>
+        <v>843</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>843</v>
@@ -4424,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>300</v>
+        <v>919</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>126</v>
